--- a/projects/test_building/input/Scenario_UsefulEnergyDemandIndex_ApplianceElectricity.xlsx
+++ b/projects/test_building/input/Scenario_UsefulEnergyDemandIndex_ApplianceElectricity.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4506AE1E-FE61-6A4A-9C57-23803F837D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E224601F-505E-2244-9F0F-705DC5D8072A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8160" yWindow="760" windowWidth="22080" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>unit</t>
   </si>
@@ -125,16 +125,52 @@
   </si>
   <si>
     <t>id_region</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,13 +216,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1E8A209-4F66-4F42-9AFA-C7940FF714AE}" name="Table1" displayName="Table1" ref="A1:AI18" totalsRowShown="0">
-  <autoFilter ref="A1:AI18" xr:uid="{B1E8A209-4F66-4F42-9AFA-C7940FF714AE}"/>
-  <tableColumns count="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1E8A209-4F66-4F42-9AFA-C7940FF714AE}" name="Table1" displayName="Table1" ref="A1:AS18" totalsRowShown="0">
+  <autoFilter ref="A1:AS18" xr:uid="{B1E8A209-4F66-4F42-9AFA-C7940FF714AE}"/>
+  <tableColumns count="45">
     <tableColumn id="2" xr3:uid="{1A762194-2509-D14E-BCE3-C68881F803F9}" name="id_region"/>
     <tableColumn id="1" xr3:uid="{DC247648-1209-5C48-8179-E221E9A884AD}" name="id_sector"/>
     <tableColumn id="3" xr3:uid="{91AA89A4-5D7F-EE46-AC73-F0847DDA5A45}" name="id_subsector"/>
     <tableColumn id="4" xr3:uid="{EC7EA3BC-20AE-8444-B63F-7A9910559309}" name="unit"/>
+    <tableColumn id="36" xr3:uid="{A2A355E5-BB3F-D944-A0E3-721E8DE29D2B}" name="2010"/>
+    <tableColumn id="37" xr3:uid="{718E1241-818D-A643-A0D0-288E227A19A2}" name="2011"/>
+    <tableColumn id="38" xr3:uid="{9EF48801-04F3-0947-A234-6F8DDD3E6F99}" name="2012"/>
+    <tableColumn id="39" xr3:uid="{9F88ABF8-3690-7A42-B3AD-0845A1AB30BA}" name="2013"/>
+    <tableColumn id="40" xr3:uid="{5DAD1398-5F35-4B43-AE91-C612BB1806CB}" name="2014"/>
+    <tableColumn id="41" xr3:uid="{860D76D4-2802-9948-8E56-85C60F2D303A}" name="2015"/>
+    <tableColumn id="42" xr3:uid="{7B0A2553-08E5-D448-AD13-1CC74DB06DEE}" name="2016"/>
+    <tableColumn id="43" xr3:uid="{4BAD092B-C481-9B46-9D2E-A032F316C26B}" name="2017"/>
+    <tableColumn id="44" xr3:uid="{E2610C16-11B7-5441-BB49-03B348F0AA39}" name="2018"/>
+    <tableColumn id="45" xr3:uid="{770179E0-F0FF-6D4B-B929-6B1D74B38132}" name="2019"/>
     <tableColumn id="5" xr3:uid="{7DD20F87-912C-FF4B-AE19-9F8961891E0B}" name="2020"/>
     <tableColumn id="6" xr3:uid="{D30A0481-FD62-DF4E-B0FA-273B395A1ACD}" name="2021"/>
     <tableColumn id="7" xr3:uid="{F05CCA1B-E343-DB40-A39B-D0C81B7F0562}" name="2022"/>
@@ -486,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI18"/>
+  <dimension ref="A1:AS18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -499,7 +545,7 @@
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -513,100 +559,130 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="P1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="R1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="S1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="T1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="U1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="V1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="W1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="X1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Y1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Z1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AA1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AB1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AC1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AD1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AE1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AF1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AG1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AH1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AI1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AJ1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AK1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AL1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AM1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AN1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AO1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AP1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AQ1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AR1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AS1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>9</v>
       </c>
@@ -712,8 +788,38 @@
       <c r="AI2">
         <v>1</v>
       </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>9</v>
       </c>
@@ -819,8 +925,38 @@
       <c r="AI3">
         <v>1</v>
       </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>9</v>
       </c>
@@ -926,8 +1062,38 @@
       <c r="AI4">
         <v>1</v>
       </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>1</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1033,8 +1199,38 @@
       <c r="AI5">
         <v>1</v>
       </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1140,8 +1336,38 @@
       <c r="AI6">
         <v>1</v>
       </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>1</v>
+      </c>
+      <c r="AS6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1247,8 +1473,38 @@
       <c r="AI7">
         <v>1</v>
       </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1354,8 +1610,38 @@
       <c r="AI8">
         <v>1</v>
       </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1461,8 +1747,38 @@
       <c r="AI9">
         <v>1</v>
       </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>1</v>
+      </c>
+      <c r="AS9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1568,8 +1884,38 @@
       <c r="AI10">
         <v>1</v>
       </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
+        <v>1</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>1</v>
+      </c>
+      <c r="AS10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1675,8 +2021,38 @@
       <c r="AI11">
         <v>1</v>
       </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
+        <v>1</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>1</v>
+      </c>
+      <c r="AS11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1782,8 +2158,38 @@
       <c r="AI12">
         <v>1</v>
       </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
+      <c r="AS12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1889,8 +2295,38 @@
       <c r="AI13">
         <v>1</v>
       </c>
+      <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
+        <v>1</v>
+      </c>
+      <c r="AP13">
+        <v>1</v>
+      </c>
+      <c r="AQ13">
+        <v>1</v>
+      </c>
+      <c r="AR13">
+        <v>1</v>
+      </c>
+      <c r="AS13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>9</v>
       </c>
@@ -1996,8 +2432,38 @@
       <c r="AI14">
         <v>1</v>
       </c>
+      <c r="AJ14">
+        <v>1</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
+        <v>1</v>
+      </c>
+      <c r="AP14">
+        <v>1</v>
+      </c>
+      <c r="AQ14">
+        <v>1</v>
+      </c>
+      <c r="AR14">
+        <v>1</v>
+      </c>
+      <c r="AS14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>9</v>
       </c>
@@ -2103,8 +2569,38 @@
       <c r="AI15">
         <v>1</v>
       </c>
+      <c r="AJ15">
+        <v>1</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
+        <v>1</v>
+      </c>
+      <c r="AP15">
+        <v>1</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <v>1</v>
+      </c>
+      <c r="AS15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>9</v>
       </c>
@@ -2210,8 +2706,38 @@
       <c r="AI16">
         <v>1</v>
       </c>
+      <c r="AJ16">
+        <v>1</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="AP16">
+        <v>1</v>
+      </c>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16">
+        <v>1</v>
+      </c>
+      <c r="AS16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>9</v>
       </c>
@@ -2317,8 +2843,38 @@
       <c r="AI17">
         <v>1</v>
       </c>
+      <c r="AJ17">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
+        <v>1</v>
+      </c>
+      <c r="AP17">
+        <v>1</v>
+      </c>
+      <c r="AQ17">
+        <v>1</v>
+      </c>
+      <c r="AR17">
+        <v>1</v>
+      </c>
+      <c r="AS17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9</v>
       </c>
@@ -2424,8 +2980,39 @@
       <c r="AI18">
         <v>1</v>
       </c>
+      <c r="AJ18">
+        <v>1</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
+        <v>1</v>
+      </c>
+      <c r="AP18">
+        <v>1</v>
+      </c>
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AR18">
+        <v>1</v>
+      </c>
+      <c r="AS18">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
